--- a/biology/Microbiologie/Prodiscophryidae/Prodiscophryidae.xlsx
+++ b/biology/Microbiologie/Prodiscophryidae/Prodiscophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prodiscophyridae
 Les Prodiscophryidae (syn. Prodiscophyridae) sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Prodiscophrya, dérivé du grec προ / pro, « avant », et discophrya, par allusion au genre Discophrya Lachmann, 1859.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Prodiscophrya est de petite taille[note 1]. Son trophonte[note 2] est sphéroïde et muni d'une tige. Ses tentacules sont capités, uniformément répartis sur la surface du corps. Son macronoyau est globuleux. Un micronoyau est présent. La reproduction se fait par conjugaison, anisogame, avec production de « microconjuguant »[note 3] ciliés semblables à des individus essaimeurs. On observe la présence d'une vacuole contractile[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Prodiscophrya est de petite taille[note 1]. Son trophonte[note 2] est sphéroïde et muni d'une tige. Ses tentacules sont capités, uniformément répartis sur la surface du corps. Son macronoyau est globuleux. Un micronoyau est présent. La reproduction se fait par conjugaison, anisogame, avec production de « microconjuguant »[note 3] ciliés semblables à des individus essaimeurs. On observe la présence d'une vacuole contractile.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Prodiscophrya vit dans des habitats d'eau douce du périphyton[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Prodiscophrya vit dans des habitats d'eau douce du périphyton.
 </t>
         </is>
       </c>
@@ -605,12 +623,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (21 mai 2023)[2] (pour Prodiscophyridae) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (21 mai 2023) (pour Prodiscophyridae) :
 Prodiscophrya Kormos, 1935
 Suctorella Frenzel, 1891
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Prodiscophrya Kormos, 1935
 Espèce type : Prodiscophrya collini (Root, 1914) Kormos, 1935
 Synonyme : Podophrya collini Root, 1914</t>
@@ -641,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Prodiscophryidae Jankowski, 1978[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Prodiscophryidae Jankowski, 1978.
 Certaines bases attribuent à cette famille le nom de Prodiscophyridae.
 La base Taxonomicon classe le genre Prodiscophrya dans la famille des Discophryidae Collin, 1912.
 </t>
